--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">subtext</t>
   </si>
   <si>
-    <t xml:space="preserve">Zamówienia przyjmujemy do 15.04.2025 r. Odbiór: 18.04.2025 r. 9:30–18:00</t>
+    <t xml:space="preserve">Zamów u nas dania na święta z odbiorem w barze. Przyjmujemy zamówienia do 15.04.2025 r., odbiór 18.04.2025 r. w godz. 9:30–18:00.</t>
   </si>
   <si>
     <t xml:space="preserve">Biała kiełbasa</t>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +433,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="b">
+      <c r="B1" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>

--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">subtext</t>
   </si>
   <si>
-    <t xml:space="preserve">Zamów u nas dania na święta z odbiorem w barze. Przyjmujemy zamówienia do 15.04.2025 r., odbiór 18.04.2025 r. w godz. 9:30–18:00.</t>
+    <t xml:space="preserve">Zamówienia przyjmujemy do 15.04.2025 r. Odbiór: 18.04.2025 r. 9:30–18:00.</t>
   </si>
   <si>
     <t xml:space="preserve">Biała kiełbasa</t>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">subtext</t>
   </si>
   <si>
-    <t xml:space="preserve">Zamówienia przyjmujemy do 15.04.2025 r. Odbiór: 18.04.2025 r. 9:30–18:00.</t>
+    <t xml:space="preserve">Zamów dania na święta z odbiorem w barze. Przyjmujemy zamówienia do 15.04.2025 r., odbiór 18.04.2025 r. w godz. 9:30–18:00.</t>
   </si>
   <si>
     <t xml:space="preserve">Biała kiełbasa</t>
@@ -143,9 +143,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -213,16 +212,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,8 +428,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -158,16 +158,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,7 +419,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/oferta.xlsx
+++ b/public/oferta.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
